--- a/sisab_scrap_download/nordeste/cid_f/joined_files/joined_nordeste.xlsx
+++ b/sisab_scrap_download/nordeste/cid_f/joined_files/joined_nordeste.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE12"/>
+  <dimension ref="A1:CS13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,42 +733,6 @@
       <c r="CS1" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="CT1" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="CU1" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="CV1" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="CW1" s="2" t="n">
-        <v>45536</v>
-      </c>
-      <c r="CX1" s="2" t="n">
-        <v>45505</v>
-      </c>
-      <c r="CY1" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="CZ1" s="2" t="n">
-        <v>45444</v>
-      </c>
-      <c r="DA1" s="2" t="n">
-        <v>45413</v>
-      </c>
-      <c r="DB1" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="DC1" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="DD1" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="DE1" s="2" t="n">
-        <v>45292</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1064,3351 +1028,3250 @@
       <c r="CS2" t="n">
         <v>10211</v>
       </c>
-      <c r="CT2" t="n">
-        <v>8519</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>10476</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>12037</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>12409</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>12063</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>11887</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>10216</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>10938</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>12006</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>10122</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>10098</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>11447</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes</t>
+          <t>F10-F19 - Transtornos mentais e comportamentais devidos ao uso de substância psicoativa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1430</v>
+        <v>293</v>
       </c>
       <c r="C3" t="n">
-        <v>1671</v>
+        <v>442</v>
       </c>
       <c r="D3" t="n">
-        <v>1956</v>
+        <v>580</v>
       </c>
       <c r="E3" t="n">
-        <v>2106</v>
+        <v>586</v>
       </c>
       <c r="F3" t="n">
-        <v>2347</v>
+        <v>770</v>
       </c>
       <c r="G3" t="n">
-        <v>2040</v>
+        <v>522</v>
       </c>
       <c r="H3" t="n">
-        <v>2126</v>
+        <v>678</v>
       </c>
       <c r="I3" t="n">
-        <v>1818</v>
+        <v>588</v>
       </c>
       <c r="J3" t="n">
-        <v>1764</v>
+        <v>537</v>
       </c>
       <c r="K3" t="n">
-        <v>1867</v>
+        <v>584</v>
       </c>
       <c r="L3" t="n">
-        <v>1808</v>
+        <v>497</v>
       </c>
       <c r="M3" t="n">
+        <v>513</v>
+      </c>
+      <c r="N3" t="n">
+        <v>679</v>
+      </c>
+      <c r="O3" t="n">
+        <v>857</v>
+      </c>
+      <c r="P3" t="n">
+        <v>760</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>863</v>
+      </c>
+      <c r="R3" t="n">
+        <v>856</v>
+      </c>
+      <c r="S3" t="n">
+        <v>691</v>
+      </c>
+      <c r="T3" t="n">
+        <v>670</v>
+      </c>
+      <c r="U3" t="n">
+        <v>657</v>
+      </c>
+      <c r="V3" t="n">
+        <v>604</v>
+      </c>
+      <c r="W3" t="n">
+        <v>731</v>
+      </c>
+      <c r="X3" t="n">
+        <v>669</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>692</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>682</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>819</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>974</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1040</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1138</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>916</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>852</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1075</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>989</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>933</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>764</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>777</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>832</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1090</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1158</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1216</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1194</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>793</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>897</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>867</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>664</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1075</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1029</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1113</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1473</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1491</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1283</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1370</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1151</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>939</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>812</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1128</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1078</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1212</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1409</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1688</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1607</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1719</v>
+      </c>
+      <c r="BN3" t="n">
         <v>1576</v>
       </c>
-      <c r="N3" t="n">
-        <v>3820</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4617</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4392</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3986</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3844</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3143</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3256</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3188</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2565</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2877</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2334</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2534</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>4688</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5052</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6402</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5660</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6509</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>5941</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5445</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>5685</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>5343</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>4886</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4389</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>5044</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>5337</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>6263</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6893</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6112</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>6535</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>6500</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>4806</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>5392</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>5073</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>4132</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>6454</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6614</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>6490</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>7536</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>7214</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>8038</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>7163</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>7299</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>6219</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>5656</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>5862</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>7056</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>6470</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>7047</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>8105</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>8705</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>8159</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>8888</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>9278</v>
-      </c>
       <c r="BO3" t="n">
-        <v>8355</v>
+        <v>1456</v>
       </c>
       <c r="BP3" t="n">
-        <v>7911</v>
+        <v>1282</v>
       </c>
       <c r="BQ3" t="n">
-        <v>7611</v>
+        <v>1236</v>
       </c>
       <c r="BR3" t="n">
-        <v>6993</v>
+        <v>1125</v>
       </c>
       <c r="BS3" t="n">
-        <v>7760</v>
+        <v>1359</v>
       </c>
       <c r="BT3" t="n">
-        <v>6816</v>
+        <v>1351</v>
       </c>
       <c r="BU3" t="n">
-        <v>6899</v>
+        <v>1289</v>
       </c>
       <c r="BV3" t="n">
-        <v>10167</v>
+        <v>2045</v>
       </c>
       <c r="BW3" t="n">
-        <v>10937</v>
+        <v>2165</v>
       </c>
       <c r="BX3" t="n">
-        <v>10750</v>
+        <v>2284</v>
       </c>
       <c r="BY3" t="n">
-        <v>11620</v>
+        <v>2340</v>
       </c>
       <c r="BZ3" t="n">
-        <v>12343</v>
+        <v>2390</v>
       </c>
       <c r="CA3" t="n">
-        <v>9592</v>
+        <v>1684</v>
       </c>
       <c r="CB3" t="n">
-        <v>9199</v>
+        <v>1640</v>
       </c>
       <c r="CC3" t="n">
-        <v>10127</v>
+        <v>1840</v>
       </c>
       <c r="CD3" t="n">
-        <v>8180</v>
+        <v>1453</v>
       </c>
       <c r="CE3" t="n">
-        <v>10173</v>
+        <v>1665</v>
       </c>
       <c r="CF3" t="n">
-        <v>9044</v>
+        <v>1521</v>
       </c>
       <c r="CG3" t="n">
-        <v>7899</v>
+        <v>1368</v>
       </c>
       <c r="CH3" t="n">
-        <v>11262</v>
+        <v>2286</v>
       </c>
       <c r="CI3" t="n">
-        <v>13337</v>
+        <v>2812</v>
       </c>
       <c r="CJ3" t="n">
-        <v>13415</v>
+        <v>2849</v>
       </c>
       <c r="CK3" t="n">
-        <v>12146</v>
+        <v>2666</v>
       </c>
       <c r="CL3" t="n">
-        <v>14122</v>
+        <v>3258</v>
       </c>
       <c r="CM3" t="n">
-        <v>12957</v>
+        <v>3123</v>
       </c>
       <c r="CN3" t="n">
-        <v>11015</v>
+        <v>2460</v>
       </c>
       <c r="CO3" t="n">
-        <v>14637</v>
+        <v>3554</v>
       </c>
       <c r="CP3" t="n">
-        <v>11096</v>
+        <v>2579</v>
       </c>
       <c r="CQ3" t="n">
-        <v>12791</v>
+        <v>2797</v>
       </c>
       <c r="CR3" t="n">
-        <v>11078</v>
+        <v>2357</v>
       </c>
       <c r="CS3" t="n">
-        <v>11680</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>11362</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>13322</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>15489</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>14601</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>14917</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>15144</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>13216</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>13951</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>15205</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>12495</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>12504</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>14143</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F30-F39 - Transtornos do humor [afetivos]</t>
+          <t>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3437</v>
+        <v>1430</v>
       </c>
       <c r="C4" t="n">
-        <v>4646</v>
+        <v>1671</v>
       </c>
       <c r="D4" t="n">
-        <v>5434</v>
+        <v>1956</v>
       </c>
       <c r="E4" t="n">
-        <v>6403</v>
+        <v>2106</v>
       </c>
       <c r="F4" t="n">
-        <v>6950</v>
+        <v>2347</v>
       </c>
       <c r="G4" t="n">
-        <v>6027</v>
+        <v>2040</v>
       </c>
       <c r="H4" t="n">
-        <v>6524</v>
+        <v>2126</v>
       </c>
       <c r="I4" t="n">
-        <v>5787</v>
+        <v>1818</v>
       </c>
       <c r="J4" t="n">
-        <v>5410</v>
+        <v>1764</v>
       </c>
       <c r="K4" t="n">
-        <v>5638</v>
+        <v>1867</v>
       </c>
       <c r="L4" t="n">
-        <v>4839</v>
+        <v>1808</v>
       </c>
       <c r="M4" t="n">
-        <v>4360</v>
+        <v>1576</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>3820</v>
       </c>
       <c r="O4" t="n">
-        <v>10095</v>
+        <v>4617</v>
       </c>
       <c r="P4" t="n">
-        <v>9430</v>
+        <v>4392</v>
       </c>
       <c r="Q4" t="n">
-        <v>8868</v>
+        <v>3986</v>
       </c>
       <c r="R4" t="n">
-        <v>8719</v>
+        <v>3844</v>
       </c>
       <c r="S4" t="n">
-        <v>7396</v>
+        <v>3143</v>
       </c>
       <c r="T4" t="n">
-        <v>7540</v>
+        <v>3256</v>
       </c>
       <c r="U4" t="n">
-        <v>8223</v>
+        <v>3188</v>
       </c>
       <c r="V4" t="n">
-        <v>6471</v>
+        <v>2565</v>
       </c>
       <c r="W4" t="n">
-        <v>7303</v>
+        <v>2877</v>
       </c>
       <c r="X4" t="n">
-        <v>5921</v>
+        <v>2334</v>
       </c>
       <c r="Y4" t="n">
-        <v>6541</v>
+        <v>2534</v>
       </c>
       <c r="Z4" t="n">
-        <v>10396</v>
+        <v>4688</v>
       </c>
       <c r="AA4" t="n">
-        <v>11043</v>
+        <v>5052</v>
       </c>
       <c r="AB4" t="n">
-        <v>13056</v>
+        <v>6402</v>
       </c>
       <c r="AC4" t="n">
-        <v>11543</v>
+        <v>5660</v>
       </c>
       <c r="AD4" t="n">
-        <v>13079</v>
+        <v>6509</v>
       </c>
       <c r="AE4" t="n">
-        <v>11744</v>
+        <v>5941</v>
       </c>
       <c r="AF4" t="n">
-        <v>10522</v>
+        <v>5445</v>
       </c>
       <c r="AG4" t="n">
-        <v>11123</v>
+        <v>5685</v>
       </c>
       <c r="AH4" t="n">
-        <v>10869</v>
+        <v>5343</v>
       </c>
       <c r="AI4" t="n">
-        <v>10284</v>
+        <v>4886</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9540</v>
+        <v>4389</v>
       </c>
       <c r="AK4" t="n">
-        <v>9741</v>
+        <v>5044</v>
       </c>
       <c r="AL4" t="n">
-        <v>11362</v>
+        <v>5337</v>
       </c>
       <c r="AM4" t="n">
-        <v>12964</v>
+        <v>6263</v>
       </c>
       <c r="AN4" t="n">
-        <v>15354</v>
+        <v>6893</v>
       </c>
       <c r="AO4" t="n">
-        <v>13875</v>
+        <v>6112</v>
       </c>
       <c r="AP4" t="n">
-        <v>14299</v>
+        <v>6535</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13186</v>
+        <v>6500</v>
       </c>
       <c r="AR4" t="n">
-        <v>10139</v>
+        <v>4806</v>
       </c>
       <c r="AS4" t="n">
-        <v>12549</v>
+        <v>5392</v>
       </c>
       <c r="AT4" t="n">
-        <v>11328</v>
+        <v>5073</v>
       </c>
       <c r="AU4" t="n">
-        <v>8972</v>
+        <v>4132</v>
       </c>
       <c r="AV4" t="n">
-        <v>13688</v>
+        <v>6454</v>
       </c>
       <c r="AW4" t="n">
-        <v>13064</v>
+        <v>6614</v>
       </c>
       <c r="AX4" t="n">
-        <v>14952</v>
+        <v>6490</v>
       </c>
       <c r="AY4" t="n">
-        <v>16911</v>
+        <v>7536</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16279</v>
+        <v>7214</v>
       </c>
       <c r="BA4" t="n">
-        <v>18832</v>
+        <v>8038</v>
       </c>
       <c r="BB4" t="n">
-        <v>16411</v>
+        <v>7163</v>
       </c>
       <c r="BC4" t="n">
-        <v>16872</v>
+        <v>7299</v>
       </c>
       <c r="BD4" t="n">
-        <v>14311</v>
+        <v>6219</v>
       </c>
       <c r="BE4" t="n">
-        <v>13008</v>
+        <v>5656</v>
       </c>
       <c r="BF4" t="n">
-        <v>13030</v>
+        <v>5862</v>
       </c>
       <c r="BG4" t="n">
-        <v>14795</v>
+        <v>7056</v>
       </c>
       <c r="BH4" t="n">
-        <v>13218</v>
+        <v>6470</v>
       </c>
       <c r="BI4" t="n">
-        <v>14647</v>
+        <v>7047</v>
       </c>
       <c r="BJ4" t="n">
-        <v>17586</v>
+        <v>8105</v>
       </c>
       <c r="BK4" t="n">
-        <v>19066</v>
+        <v>8705</v>
       </c>
       <c r="BL4" t="n">
-        <v>18791</v>
+        <v>8159</v>
       </c>
       <c r="BM4" t="n">
-        <v>20313</v>
+        <v>8888</v>
       </c>
       <c r="BN4" t="n">
-        <v>20512</v>
+        <v>9278</v>
       </c>
       <c r="BO4" t="n">
-        <v>18957</v>
+        <v>8355</v>
       </c>
       <c r="BP4" t="n">
-        <v>16516</v>
+        <v>7911</v>
       </c>
       <c r="BQ4" t="n">
-        <v>16052</v>
+        <v>7611</v>
       </c>
       <c r="BR4" t="n">
-        <v>15855</v>
+        <v>6993</v>
       </c>
       <c r="BS4" t="n">
-        <v>16964</v>
+        <v>7760</v>
       </c>
       <c r="BT4" t="n">
-        <v>15011</v>
+        <v>6816</v>
       </c>
       <c r="BU4" t="n">
-        <v>15285</v>
+        <v>6899</v>
       </c>
       <c r="BV4" t="n">
-        <v>21566</v>
+        <v>10167</v>
       </c>
       <c r="BW4" t="n">
-        <v>23589</v>
+        <v>10937</v>
       </c>
       <c r="BX4" t="n">
-        <v>24021</v>
+        <v>10750</v>
       </c>
       <c r="BY4" t="n">
-        <v>24946</v>
+        <v>11620</v>
       </c>
       <c r="BZ4" t="n">
-        <v>26591</v>
+        <v>12343</v>
       </c>
       <c r="CA4" t="n">
-        <v>20309</v>
+        <v>9592</v>
       </c>
       <c r="CB4" t="n">
-        <v>18471</v>
+        <v>9199</v>
       </c>
       <c r="CC4" t="n">
-        <v>21467</v>
+        <v>10127</v>
       </c>
       <c r="CD4" t="n">
-        <v>18143</v>
+        <v>8180</v>
       </c>
       <c r="CE4" t="n">
-        <v>21564</v>
+        <v>10173</v>
       </c>
       <c r="CF4" t="n">
-        <v>19267</v>
+        <v>9044</v>
       </c>
       <c r="CG4" t="n">
-        <v>15865</v>
+        <v>7899</v>
       </c>
       <c r="CH4" t="n">
-        <v>22997</v>
+        <v>11262</v>
       </c>
       <c r="CI4" t="n">
-        <v>28082</v>
+        <v>13337</v>
       </c>
       <c r="CJ4" t="n">
-        <v>28808</v>
+        <v>13415</v>
       </c>
       <c r="CK4" t="n">
-        <v>26182</v>
+        <v>12146</v>
       </c>
       <c r="CL4" t="n">
-        <v>29984</v>
+        <v>14122</v>
       </c>
       <c r="CM4" t="n">
-        <v>27186</v>
+        <v>12957</v>
       </c>
       <c r="CN4" t="n">
-        <v>23388</v>
+        <v>11015</v>
       </c>
       <c r="CO4" t="n">
-        <v>32266</v>
+        <v>14637</v>
       </c>
       <c r="CP4" t="n">
-        <v>24108</v>
+        <v>11096</v>
       </c>
       <c r="CQ4" t="n">
-        <v>27447</v>
+        <v>12791</v>
       </c>
       <c r="CR4" t="n">
-        <v>23619</v>
+        <v>11078</v>
       </c>
       <c r="CS4" t="n">
-        <v>24726</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>22371</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>26566</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>31672</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>30621</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>29676</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>29735</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>26027</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>28344</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>30704</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>24839</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>25500</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>28331</v>
+        <v>11680</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes</t>
+          <t>F30-F39 - Transtornos do humor [afetivos]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4313</v>
+        <v>3437</v>
       </c>
       <c r="C5" t="n">
-        <v>5483</v>
+        <v>4646</v>
       </c>
       <c r="D5" t="n">
-        <v>6296</v>
+        <v>5434</v>
       </c>
       <c r="E5" t="n">
-        <v>6988</v>
+        <v>6403</v>
       </c>
       <c r="F5" t="n">
-        <v>7721</v>
+        <v>6950</v>
       </c>
       <c r="G5" t="n">
-        <v>6677</v>
+        <v>6027</v>
       </c>
       <c r="H5" t="n">
-        <v>6873</v>
+        <v>6524</v>
       </c>
       <c r="I5" t="n">
-        <v>6897</v>
+        <v>5787</v>
       </c>
       <c r="J5" t="n">
-        <v>6117</v>
+        <v>5410</v>
       </c>
       <c r="K5" t="n">
-        <v>6053</v>
+        <v>5638</v>
       </c>
       <c r="L5" t="n">
-        <v>5113</v>
+        <v>4839</v>
       </c>
       <c r="M5" t="n">
-        <v>4862</v>
+        <v>4360</v>
       </c>
       <c r="N5" t="n">
-        <v>11821</v>
+        <v>8000</v>
       </c>
       <c r="O5" t="n">
-        <v>15701</v>
+        <v>10095</v>
       </c>
       <c r="P5" t="n">
-        <v>15126</v>
+        <v>9430</v>
       </c>
       <c r="Q5" t="n">
-        <v>13870</v>
+        <v>8868</v>
       </c>
       <c r="R5" t="n">
-        <v>13795</v>
+        <v>8719</v>
       </c>
       <c r="S5" t="n">
-        <v>10352</v>
+        <v>7396</v>
       </c>
       <c r="T5" t="n">
-        <v>10620</v>
+        <v>7540</v>
       </c>
       <c r="U5" t="n">
-        <v>10913</v>
+        <v>8223</v>
       </c>
       <c r="V5" t="n">
-        <v>8440</v>
+        <v>6471</v>
       </c>
       <c r="W5" t="n">
-        <v>9581</v>
+        <v>7303</v>
       </c>
       <c r="X5" t="n">
-        <v>7499</v>
+        <v>5921</v>
       </c>
       <c r="Y5" t="n">
-        <v>8106</v>
+        <v>6541</v>
       </c>
       <c r="Z5" t="n">
-        <v>16218</v>
+        <v>10396</v>
       </c>
       <c r="AA5" t="n">
-        <v>19519</v>
+        <v>11043</v>
       </c>
       <c r="AB5" t="n">
-        <v>23536</v>
+        <v>13056</v>
       </c>
       <c r="AC5" t="n">
-        <v>21140</v>
+        <v>11543</v>
       </c>
       <c r="AD5" t="n">
-        <v>23915</v>
+        <v>13079</v>
       </c>
       <c r="AE5" t="n">
-        <v>20756</v>
+        <v>11744</v>
       </c>
       <c r="AF5" t="n">
-        <v>18310</v>
+        <v>10522</v>
       </c>
       <c r="AG5" t="n">
-        <v>19215</v>
+        <v>11123</v>
       </c>
       <c r="AH5" t="n">
-        <v>18410</v>
+        <v>10869</v>
       </c>
       <c r="AI5" t="n">
-        <v>17210</v>
+        <v>10284</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14924</v>
+        <v>9540</v>
       </c>
       <c r="AK5" t="n">
-        <v>16393</v>
+        <v>9741</v>
       </c>
       <c r="AL5" t="n">
-        <v>20913</v>
+        <v>11362</v>
       </c>
       <c r="AM5" t="n">
-        <v>26236</v>
+        <v>12964</v>
       </c>
       <c r="AN5" t="n">
-        <v>28787</v>
+        <v>15354</v>
       </c>
       <c r="AO5" t="n">
-        <v>26134</v>
+        <v>13875</v>
       </c>
       <c r="AP5" t="n">
-        <v>26331</v>
+        <v>14299</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24657</v>
+        <v>13186</v>
       </c>
       <c r="AR5" t="n">
-        <v>18294</v>
+        <v>10139</v>
       </c>
       <c r="AS5" t="n">
-        <v>22227</v>
+        <v>12549</v>
       </c>
       <c r="AT5" t="n">
-        <v>19515</v>
+        <v>11328</v>
       </c>
       <c r="AU5" t="n">
-        <v>15655</v>
+        <v>8972</v>
       </c>
       <c r="AV5" t="n">
-        <v>24094</v>
+        <v>13688</v>
       </c>
       <c r="AW5" t="n">
-        <v>22979</v>
+        <v>13064</v>
       </c>
       <c r="AX5" t="n">
-        <v>35447</v>
+        <v>14952</v>
       </c>
       <c r="AY5" t="n">
-        <v>41839</v>
+        <v>16911</v>
       </c>
       <c r="AZ5" t="n">
-        <v>39393</v>
+        <v>16279</v>
       </c>
       <c r="BA5" t="n">
-        <v>44387</v>
+        <v>18832</v>
       </c>
       <c r="BB5" t="n">
-        <v>39723</v>
+        <v>16411</v>
       </c>
       <c r="BC5" t="n">
-        <v>40025</v>
+        <v>16872</v>
       </c>
       <c r="BD5" t="n">
-        <v>33788</v>
+        <v>14311</v>
       </c>
       <c r="BE5" t="n">
-        <v>29579</v>
+        <v>13008</v>
       </c>
       <c r="BF5" t="n">
-        <v>26813</v>
+        <v>13030</v>
       </c>
       <c r="BG5" t="n">
-        <v>28574</v>
+        <v>14795</v>
       </c>
       <c r="BH5" t="n">
-        <v>26205</v>
+        <v>13218</v>
       </c>
       <c r="BI5" t="n">
-        <v>29060</v>
+        <v>14647</v>
       </c>
       <c r="BJ5" t="n">
-        <v>50627</v>
+        <v>17586</v>
       </c>
       <c r="BK5" t="n">
-        <v>57943</v>
+        <v>19066</v>
       </c>
       <c r="BL5" t="n">
-        <v>55456</v>
+        <v>18791</v>
       </c>
       <c r="BM5" t="n">
-        <v>59226</v>
+        <v>20313</v>
       </c>
       <c r="BN5" t="n">
-        <v>61254</v>
+        <v>20512</v>
       </c>
       <c r="BO5" t="n">
-        <v>54584</v>
+        <v>18957</v>
       </c>
       <c r="BP5" t="n">
-        <v>46745</v>
+        <v>16516</v>
       </c>
       <c r="BQ5" t="n">
-        <v>44898</v>
+        <v>16052</v>
       </c>
       <c r="BR5" t="n">
-        <v>43033</v>
+        <v>15855</v>
       </c>
       <c r="BS5" t="n">
-        <v>44981</v>
+        <v>16964</v>
       </c>
       <c r="BT5" t="n">
-        <v>38478</v>
+        <v>15011</v>
       </c>
       <c r="BU5" t="n">
-        <v>38519</v>
+        <v>15285</v>
       </c>
       <c r="BV5" t="n">
-        <v>73972</v>
+        <v>21566</v>
       </c>
       <c r="BW5" t="n">
-        <v>80838</v>
+        <v>23589</v>
       </c>
       <c r="BX5" t="n">
-        <v>83890</v>
+        <v>24021</v>
       </c>
       <c r="BY5" t="n">
-        <v>87389</v>
+        <v>24946</v>
       </c>
       <c r="BZ5" t="n">
-        <v>92044</v>
+        <v>26591</v>
       </c>
       <c r="CA5" t="n">
-        <v>68641</v>
+        <v>20309</v>
       </c>
       <c r="CB5" t="n">
-        <v>61657</v>
+        <v>18471</v>
       </c>
       <c r="CC5" t="n">
-        <v>71845</v>
+        <v>21467</v>
       </c>
       <c r="CD5" t="n">
-        <v>59005</v>
+        <v>18143</v>
       </c>
       <c r="CE5" t="n">
-        <v>71252</v>
+        <v>21564</v>
       </c>
       <c r="CF5" t="n">
-        <v>61387</v>
+        <v>19267</v>
       </c>
       <c r="CG5" t="n">
-        <v>48370</v>
+        <v>15865</v>
       </c>
       <c r="CH5" t="n">
-        <v>88693</v>
+        <v>22997</v>
       </c>
       <c r="CI5" t="n">
-        <v>110482</v>
+        <v>28082</v>
       </c>
       <c r="CJ5" t="n">
-        <v>113324</v>
+        <v>28808</v>
       </c>
       <c r="CK5" t="n">
-        <v>105425</v>
+        <v>26182</v>
       </c>
       <c r="CL5" t="n">
-        <v>120249</v>
+        <v>29984</v>
       </c>
       <c r="CM5" t="n">
-        <v>105274</v>
+        <v>27186</v>
       </c>
       <c r="CN5" t="n">
-        <v>87280</v>
+        <v>23388</v>
       </c>
       <c r="CO5" t="n">
-        <v>121026</v>
+        <v>32266</v>
       </c>
       <c r="CP5" t="n">
-        <v>88568</v>
+        <v>24108</v>
       </c>
       <c r="CQ5" t="n">
-        <v>103368</v>
+        <v>27447</v>
       </c>
       <c r="CR5" t="n">
-        <v>84651</v>
+        <v>23619</v>
       </c>
       <c r="CS5" t="n">
-        <v>87844</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>90743</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>114201</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>132736</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>130881</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>128253</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>130989</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>109762</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>118529</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>128118</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>102313</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>103552</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>117246</v>
+        <v>24726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos</t>
+          <t>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>711</v>
+        <v>4313</v>
       </c>
       <c r="C6" t="n">
-        <v>914</v>
+        <v>5483</v>
       </c>
       <c r="D6" t="n">
-        <v>1223</v>
+        <v>6296</v>
       </c>
       <c r="E6" t="n">
-        <v>1170</v>
+        <v>6988</v>
       </c>
       <c r="F6" t="n">
-        <v>1595</v>
+        <v>7721</v>
       </c>
       <c r="G6" t="n">
-        <v>1247</v>
+        <v>6677</v>
       </c>
       <c r="H6" t="n">
-        <v>1283</v>
+        <v>6873</v>
       </c>
       <c r="I6" t="n">
-        <v>1299</v>
+        <v>6897</v>
       </c>
       <c r="J6" t="n">
-        <v>1089</v>
+        <v>6117</v>
       </c>
       <c r="K6" t="n">
-        <v>1052</v>
+        <v>6053</v>
       </c>
       <c r="L6" t="n">
-        <v>1045</v>
+        <v>5113</v>
       </c>
       <c r="M6" t="n">
-        <v>940</v>
+        <v>4862</v>
       </c>
       <c r="N6" t="n">
-        <v>1400</v>
+        <v>11821</v>
       </c>
       <c r="O6" t="n">
-        <v>2015</v>
+        <v>15701</v>
       </c>
       <c r="P6" t="n">
-        <v>1896</v>
+        <v>15126</v>
       </c>
       <c r="Q6" t="n">
-        <v>1842</v>
+        <v>13870</v>
       </c>
       <c r="R6" t="n">
-        <v>2123</v>
+        <v>13795</v>
       </c>
       <c r="S6" t="n">
-        <v>1862</v>
+        <v>10352</v>
       </c>
       <c r="T6" t="n">
-        <v>1610</v>
+        <v>10620</v>
       </c>
       <c r="U6" t="n">
-        <v>1768</v>
+        <v>10913</v>
       </c>
       <c r="V6" t="n">
-        <v>1277</v>
+        <v>8440</v>
       </c>
       <c r="W6" t="n">
-        <v>1631</v>
+        <v>9581</v>
       </c>
       <c r="X6" t="n">
-        <v>1234</v>
+        <v>7499</v>
       </c>
       <c r="Y6" t="n">
-        <v>1212</v>
+        <v>8106</v>
       </c>
       <c r="Z6" t="n">
-        <v>1712</v>
+        <v>16218</v>
       </c>
       <c r="AA6" t="n">
-        <v>2123</v>
+        <v>19519</v>
       </c>
       <c r="AB6" t="n">
-        <v>2489</v>
+        <v>23536</v>
       </c>
       <c r="AC6" t="n">
-        <v>2249</v>
+        <v>21140</v>
       </c>
       <c r="AD6" t="n">
-        <v>2632</v>
+        <v>23915</v>
       </c>
       <c r="AE6" t="n">
-        <v>2559</v>
+        <v>20756</v>
       </c>
       <c r="AF6" t="n">
-        <v>2060</v>
+        <v>18310</v>
       </c>
       <c r="AG6" t="n">
-        <v>2350</v>
+        <v>19215</v>
       </c>
       <c r="AH6" t="n">
-        <v>2121</v>
+        <v>18410</v>
       </c>
       <c r="AI6" t="n">
-        <v>2008</v>
+        <v>17210</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1868</v>
+        <v>14924</v>
       </c>
       <c r="AK6" t="n">
-        <v>1915</v>
+        <v>16393</v>
       </c>
       <c r="AL6" t="n">
-        <v>1887</v>
+        <v>20913</v>
       </c>
       <c r="AM6" t="n">
-        <v>2461</v>
+        <v>26236</v>
       </c>
       <c r="AN6" t="n">
-        <v>2913</v>
+        <v>28787</v>
       </c>
       <c r="AO6" t="n">
-        <v>2735</v>
+        <v>26134</v>
       </c>
       <c r="AP6" t="n">
-        <v>2869</v>
+        <v>26331</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2865</v>
+        <v>24657</v>
       </c>
       <c r="AR6" t="n">
-        <v>2089</v>
+        <v>18294</v>
       </c>
       <c r="AS6" t="n">
-        <v>2518</v>
+        <v>22227</v>
       </c>
       <c r="AT6" t="n">
-        <v>2322</v>
+        <v>19515</v>
       </c>
       <c r="AU6" t="n">
-        <v>1675</v>
+        <v>15655</v>
       </c>
       <c r="AV6" t="n">
-        <v>2561</v>
+        <v>24094</v>
       </c>
       <c r="AW6" t="n">
-        <v>2649</v>
+        <v>22979</v>
       </c>
       <c r="AX6" t="n">
-        <v>2825</v>
+        <v>35447</v>
       </c>
       <c r="AY6" t="n">
-        <v>3408</v>
+        <v>41839</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3528</v>
+        <v>39393</v>
       </c>
       <c r="BA6" t="n">
-        <v>4079</v>
+        <v>44387</v>
       </c>
       <c r="BB6" t="n">
-        <v>3874</v>
+        <v>39723</v>
       </c>
       <c r="BC6" t="n">
-        <v>3955</v>
+        <v>40025</v>
       </c>
       <c r="BD6" t="n">
-        <v>3163</v>
+        <v>33788</v>
       </c>
       <c r="BE6" t="n">
-        <v>2720</v>
+        <v>29579</v>
       </c>
       <c r="BF6" t="n">
-        <v>2595</v>
+        <v>26813</v>
       </c>
       <c r="BG6" t="n">
-        <v>2790</v>
+        <v>28574</v>
       </c>
       <c r="BH6" t="n">
-        <v>2575</v>
+        <v>26205</v>
       </c>
       <c r="BI6" t="n">
-        <v>2795</v>
+        <v>29060</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2629</v>
+        <v>50627</v>
       </c>
       <c r="BK6" t="n">
-        <v>3068</v>
+        <v>57943</v>
       </c>
       <c r="BL6" t="n">
-        <v>3008</v>
+        <v>55456</v>
       </c>
       <c r="BM6" t="n">
-        <v>3400</v>
+        <v>59226</v>
       </c>
       <c r="BN6" t="n">
-        <v>3762</v>
+        <v>61254</v>
       </c>
       <c r="BO6" t="n">
-        <v>3479</v>
+        <v>54584</v>
       </c>
       <c r="BP6" t="n">
-        <v>2943</v>
+        <v>46745</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3167</v>
+        <v>44898</v>
       </c>
       <c r="BR6" t="n">
-        <v>3123</v>
+        <v>43033</v>
       </c>
       <c r="BS6" t="n">
-        <v>3235</v>
+        <v>44981</v>
       </c>
       <c r="BT6" t="n">
-        <v>3015</v>
+        <v>38478</v>
       </c>
       <c r="BU6" t="n">
-        <v>3156</v>
+        <v>38519</v>
       </c>
       <c r="BV6" t="n">
-        <v>3084</v>
+        <v>73972</v>
       </c>
       <c r="BW6" t="n">
-        <v>3491</v>
+        <v>80838</v>
       </c>
       <c r="BX6" t="n">
-        <v>3385</v>
+        <v>83890</v>
       </c>
       <c r="BY6" t="n">
-        <v>3701</v>
+        <v>87389</v>
       </c>
       <c r="BZ6" t="n">
-        <v>4138</v>
+        <v>92044</v>
       </c>
       <c r="CA6" t="n">
-        <v>3133</v>
+        <v>68641</v>
       </c>
       <c r="CB6" t="n">
-        <v>2997</v>
+        <v>61657</v>
       </c>
       <c r="CC6" t="n">
-        <v>3361</v>
+        <v>71845</v>
       </c>
       <c r="CD6" t="n">
-        <v>2731</v>
+        <v>59005</v>
       </c>
       <c r="CE6" t="n">
-        <v>3307</v>
+        <v>71252</v>
       </c>
       <c r="CF6" t="n">
-        <v>3056</v>
+        <v>61387</v>
       </c>
       <c r="CG6" t="n">
-        <v>2469</v>
+        <v>48370</v>
       </c>
       <c r="CH6" t="n">
-        <v>2987</v>
+        <v>88693</v>
       </c>
       <c r="CI6" t="n">
-        <v>3717</v>
+        <v>110482</v>
       </c>
       <c r="CJ6" t="n">
-        <v>3869</v>
+        <v>113324</v>
       </c>
       <c r="CK6" t="n">
-        <v>3573</v>
+        <v>105425</v>
       </c>
       <c r="CL6" t="n">
-        <v>4428</v>
+        <v>120249</v>
       </c>
       <c r="CM6" t="n">
-        <v>4078</v>
+        <v>105274</v>
       </c>
       <c r="CN6" t="n">
-        <v>3251</v>
+        <v>87280</v>
       </c>
       <c r="CO6" t="n">
-        <v>4517</v>
+        <v>121026</v>
       </c>
       <c r="CP6" t="n">
-        <v>3529</v>
+        <v>88568</v>
       </c>
       <c r="CQ6" t="n">
-        <v>4216</v>
+        <v>103368</v>
       </c>
       <c r="CR6" t="n">
-        <v>3326</v>
+        <v>84651</v>
       </c>
       <c r="CS6" t="n">
-        <v>3620</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>2918</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>3796</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>4484</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>4545</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>4414</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>4574</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>3729</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>4014</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>4467</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>3445</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>3421</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>4052</v>
+        <v>87844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F60-F69 - Transtornos da personalidade e do comportamento do adulto</t>
+          <t>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86</v>
+        <v>711</v>
       </c>
       <c r="C7" t="n">
-        <v>138</v>
+        <v>914</v>
       </c>
       <c r="D7" t="n">
-        <v>118</v>
+        <v>1223</v>
       </c>
       <c r="E7" t="n">
-        <v>176</v>
+        <v>1170</v>
       </c>
       <c r="F7" t="n">
-        <v>176</v>
+        <v>1595</v>
       </c>
       <c r="G7" t="n">
-        <v>150</v>
+        <v>1247</v>
       </c>
       <c r="H7" t="n">
-        <v>162</v>
+        <v>1283</v>
       </c>
       <c r="I7" t="n">
-        <v>153</v>
+        <v>1299</v>
       </c>
       <c r="J7" t="n">
-        <v>136</v>
+        <v>1089</v>
       </c>
       <c r="K7" t="n">
-        <v>140</v>
+        <v>1052</v>
       </c>
       <c r="L7" t="n">
-        <v>196</v>
+        <v>1045</v>
       </c>
       <c r="M7" t="n">
-        <v>81</v>
+        <v>940</v>
       </c>
       <c r="N7" t="n">
-        <v>155</v>
+        <v>1400</v>
       </c>
       <c r="O7" t="n">
-        <v>225</v>
+        <v>2015</v>
       </c>
       <c r="P7" t="n">
-        <v>257</v>
+        <v>1896</v>
       </c>
       <c r="Q7" t="n">
-        <v>236</v>
+        <v>1842</v>
       </c>
       <c r="R7" t="n">
-        <v>227</v>
+        <v>2123</v>
       </c>
       <c r="S7" t="n">
-        <v>169</v>
+        <v>1862</v>
       </c>
       <c r="T7" t="n">
-        <v>182</v>
+        <v>1610</v>
       </c>
       <c r="U7" t="n">
-        <v>187</v>
+        <v>1768</v>
       </c>
       <c r="V7" t="n">
-        <v>150</v>
+        <v>1277</v>
       </c>
       <c r="W7" t="n">
-        <v>187</v>
+        <v>1631</v>
       </c>
       <c r="X7" t="n">
-        <v>129</v>
+        <v>1234</v>
       </c>
       <c r="Y7" t="n">
-        <v>200</v>
+        <v>1212</v>
       </c>
       <c r="Z7" t="n">
-        <v>184</v>
+        <v>1712</v>
       </c>
       <c r="AA7" t="n">
-        <v>255</v>
+        <v>2123</v>
       </c>
       <c r="AB7" t="n">
-        <v>260</v>
+        <v>2489</v>
       </c>
       <c r="AC7" t="n">
-        <v>251</v>
+        <v>2249</v>
       </c>
       <c r="AD7" t="n">
-        <v>302</v>
+        <v>2632</v>
       </c>
       <c r="AE7" t="n">
-        <v>223</v>
+        <v>2559</v>
       </c>
       <c r="AF7" t="n">
-        <v>239</v>
+        <v>2060</v>
       </c>
       <c r="AG7" t="n">
-        <v>240</v>
+        <v>2350</v>
       </c>
       <c r="AH7" t="n">
-        <v>239</v>
+        <v>2121</v>
       </c>
       <c r="AI7" t="n">
-        <v>259</v>
+        <v>2008</v>
       </c>
       <c r="AJ7" t="n">
-        <v>193</v>
+        <v>1868</v>
       </c>
       <c r="AK7" t="n">
-        <v>243</v>
+        <v>1915</v>
       </c>
       <c r="AL7" t="n">
-        <v>274</v>
+        <v>1887</v>
       </c>
       <c r="AM7" t="n">
-        <v>342</v>
+        <v>2461</v>
       </c>
       <c r="AN7" t="n">
-        <v>350</v>
+        <v>2913</v>
       </c>
       <c r="AO7" t="n">
-        <v>322</v>
+        <v>2735</v>
       </c>
       <c r="AP7" t="n">
-        <v>359</v>
+        <v>2869</v>
       </c>
       <c r="AQ7" t="n">
-        <v>273</v>
+        <v>2865</v>
       </c>
       <c r="AR7" t="n">
-        <v>200</v>
+        <v>2089</v>
       </c>
       <c r="AS7" t="n">
-        <v>277</v>
+        <v>2518</v>
       </c>
       <c r="AT7" t="n">
-        <v>224</v>
+        <v>2322</v>
       </c>
       <c r="AU7" t="n">
-        <v>198</v>
+        <v>1675</v>
       </c>
       <c r="AV7" t="n">
-        <v>324</v>
+        <v>2561</v>
       </c>
       <c r="AW7" t="n">
-        <v>301</v>
+        <v>2649</v>
       </c>
       <c r="AX7" t="n">
-        <v>470</v>
+        <v>2825</v>
       </c>
       <c r="AY7" t="n">
-        <v>562</v>
+        <v>3408</v>
       </c>
       <c r="AZ7" t="n">
-        <v>371</v>
+        <v>3528</v>
       </c>
       <c r="BA7" t="n">
-        <v>384</v>
+        <v>4079</v>
       </c>
       <c r="BB7" t="n">
-        <v>355</v>
+        <v>3874</v>
       </c>
       <c r="BC7" t="n">
-        <v>283</v>
+        <v>3955</v>
       </c>
       <c r="BD7" t="n">
-        <v>245</v>
+        <v>3163</v>
       </c>
       <c r="BE7" t="n">
-        <v>207</v>
+        <v>2720</v>
       </c>
       <c r="BF7" t="n">
-        <v>211</v>
+        <v>2595</v>
       </c>
       <c r="BG7" t="n">
-        <v>291</v>
+        <v>2790</v>
       </c>
       <c r="BH7" t="n">
-        <v>316</v>
+        <v>2575</v>
       </c>
       <c r="BI7" t="n">
-        <v>321</v>
+        <v>2795</v>
       </c>
       <c r="BJ7" t="n">
-        <v>396</v>
+        <v>2629</v>
       </c>
       <c r="BK7" t="n">
-        <v>586</v>
+        <v>3068</v>
       </c>
       <c r="BL7" t="n">
-        <v>514</v>
+        <v>3008</v>
       </c>
       <c r="BM7" t="n">
-        <v>546</v>
+        <v>3400</v>
       </c>
       <c r="BN7" t="n">
-        <v>542</v>
+        <v>3762</v>
       </c>
       <c r="BO7" t="n">
-        <v>493</v>
+        <v>3479</v>
       </c>
       <c r="BP7" t="n">
-        <v>391</v>
+        <v>2943</v>
       </c>
       <c r="BQ7" t="n">
-        <v>400</v>
+        <v>3167</v>
       </c>
       <c r="BR7" t="n">
-        <v>439</v>
+        <v>3123</v>
       </c>
       <c r="BS7" t="n">
-        <v>369</v>
+        <v>3235</v>
       </c>
       <c r="BT7" t="n">
-        <v>326</v>
+        <v>3015</v>
       </c>
       <c r="BU7" t="n">
-        <v>386</v>
+        <v>3156</v>
       </c>
       <c r="BV7" t="n">
-        <v>650</v>
+        <v>3084</v>
       </c>
       <c r="BW7" t="n">
-        <v>664</v>
+        <v>3491</v>
       </c>
       <c r="BX7" t="n">
-        <v>710</v>
+        <v>3385</v>
       </c>
       <c r="BY7" t="n">
-        <v>696</v>
+        <v>3701</v>
       </c>
       <c r="BZ7" t="n">
-        <v>720</v>
+        <v>4138</v>
       </c>
       <c r="CA7" t="n">
-        <v>550</v>
+        <v>3133</v>
       </c>
       <c r="CB7" t="n">
-        <v>521</v>
+        <v>2997</v>
       </c>
       <c r="CC7" t="n">
-        <v>593</v>
+        <v>3361</v>
       </c>
       <c r="CD7" t="n">
-        <v>453</v>
+        <v>2731</v>
       </c>
       <c r="CE7" t="n">
-        <v>637</v>
+        <v>3307</v>
       </c>
       <c r="CF7" t="n">
-        <v>506</v>
+        <v>3056</v>
       </c>
       <c r="CG7" t="n">
-        <v>397</v>
+        <v>2469</v>
       </c>
       <c r="CH7" t="n">
-        <v>824</v>
+        <v>2987</v>
       </c>
       <c r="CI7" t="n">
-        <v>1061</v>
+        <v>3717</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1017</v>
+        <v>3869</v>
       </c>
       <c r="CK7" t="n">
-        <v>955</v>
+        <v>3573</v>
       </c>
       <c r="CL7" t="n">
-        <v>1163</v>
+        <v>4428</v>
       </c>
       <c r="CM7" t="n">
-        <v>929</v>
+        <v>4078</v>
       </c>
       <c r="CN7" t="n">
-        <v>761</v>
+        <v>3251</v>
       </c>
       <c r="CO7" t="n">
-        <v>1015</v>
+        <v>4517</v>
       </c>
       <c r="CP7" t="n">
-        <v>831</v>
+        <v>3529</v>
       </c>
       <c r="CQ7" t="n">
-        <v>828</v>
+        <v>4216</v>
       </c>
       <c r="CR7" t="n">
-        <v>711</v>
+        <v>3326</v>
       </c>
       <c r="CS7" t="n">
-        <v>736</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>1145</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>1370</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>1570</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>1579</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>1541</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>1558</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>1306</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>1204</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>1272</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>1022</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>1035</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>1118</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F70-F79 - Retardo mental</t>
+          <t>F60-F69 - Transtornos da personalidade e do comportamento do adulto</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>549</v>
+        <v>86</v>
       </c>
       <c r="C8" t="n">
-        <v>558</v>
+        <v>138</v>
       </c>
       <c r="D8" t="n">
-        <v>659</v>
+        <v>118</v>
       </c>
       <c r="E8" t="n">
-        <v>795</v>
+        <v>176</v>
       </c>
       <c r="F8" t="n">
-        <v>854</v>
+        <v>176</v>
       </c>
       <c r="G8" t="n">
-        <v>669</v>
+        <v>150</v>
       </c>
       <c r="H8" t="n">
-        <v>820</v>
+        <v>162</v>
       </c>
       <c r="I8" t="n">
-        <v>688</v>
+        <v>153</v>
       </c>
       <c r="J8" t="n">
-        <v>641</v>
+        <v>136</v>
       </c>
       <c r="K8" t="n">
-        <v>742</v>
+        <v>140</v>
       </c>
       <c r="L8" t="n">
+        <v>196</v>
+      </c>
+      <c r="M8" t="n">
+        <v>81</v>
+      </c>
+      <c r="N8" t="n">
+        <v>155</v>
+      </c>
+      <c r="O8" t="n">
+        <v>225</v>
+      </c>
+      <c r="P8" t="n">
+        <v>257</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>236</v>
+      </c>
+      <c r="R8" t="n">
+        <v>227</v>
+      </c>
+      <c r="S8" t="n">
+        <v>169</v>
+      </c>
+      <c r="T8" t="n">
+        <v>182</v>
+      </c>
+      <c r="U8" t="n">
+        <v>187</v>
+      </c>
+      <c r="V8" t="n">
+        <v>150</v>
+      </c>
+      <c r="W8" t="n">
+        <v>187</v>
+      </c>
+      <c r="X8" t="n">
+        <v>129</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>184</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>255</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>260</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>302</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>223</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>239</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>239</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>259</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>193</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>243</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>274</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>342</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>350</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>322</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>359</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>273</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>277</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>224</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>198</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>324</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>470</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>562</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>371</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>384</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>355</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>283</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>245</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>207</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>211</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>291</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>316</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>321</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>396</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>586</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>514</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>546</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>542</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>493</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>391</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>400</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>439</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>369</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>326</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>386</v>
+      </c>
+      <c r="BV8" t="n">
         <v>650</v>
       </c>
-      <c r="M8" t="n">
-        <v>500</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1026</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1427</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1462</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1304</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1315</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1079</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1043</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1289</v>
-      </c>
-      <c r="V8" t="n">
-        <v>939</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1054</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="BW8" t="n">
+        <v>664</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>710</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>696</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>720</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>550</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>521</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>593</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>453</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>637</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>506</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>397</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>824</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>1061</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>1017</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>955</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>1163</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>929</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>761</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>1015</v>
+      </c>
+      <c r="CP8" t="n">
         <v>831</v>
       </c>
-      <c r="Y8" t="n">
-        <v>835</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1583</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1611</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>2064</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1829</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>2151</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1846</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1632</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>2004</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1883</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1738</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1514</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1466</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1760</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>2028</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>2344</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>2102</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>2105</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>2114</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1766</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>2004</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>1753</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>1426</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>2245</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>2221</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>1747</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>1982</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>2056</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>2127</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>1620</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>1530</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>1205</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>1087</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>1122</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>2029</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>2186</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>2169</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>2634</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>2915</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>2740</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>3053</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>3010</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>2759</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>3377</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>1792</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>1985</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>1927</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>3412</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>3905</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>4107</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>4214</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>4663</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>3360</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>3112</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>3510</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>2764</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>3330</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>3061</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>2364</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>4286</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>5363</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>5419</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>5028</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>5934</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>5144</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>4011</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>5781</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>4367</v>
-      </c>
       <c r="CQ8" t="n">
-        <v>5053</v>
+        <v>828</v>
       </c>
       <c r="CR8" t="n">
-        <v>4312</v>
+        <v>711</v>
       </c>
       <c r="CS8" t="n">
-        <v>4208</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>4608</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>5637</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>6581</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>6588</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>6545</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>6479</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>5498</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>5981</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>6251</v>
-      </c>
-      <c r="DC8" t="n">
-        <v>5339</v>
-      </c>
-      <c r="DD8" t="n">
-        <v>5257</v>
-      </c>
-      <c r="DE8" t="n">
-        <v>5624</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>F80-F89 - Transtornos do desenvolvimento psicológico</t>
+          <t>F70-F79 - Retardo mental</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>721</v>
+        <v>549</v>
       </c>
       <c r="C9" t="n">
-        <v>1173</v>
+        <v>558</v>
       </c>
       <c r="D9" t="n">
+        <v>659</v>
+      </c>
+      <c r="E9" t="n">
+        <v>795</v>
+      </c>
+      <c r="F9" t="n">
+        <v>854</v>
+      </c>
+      <c r="G9" t="n">
+        <v>669</v>
+      </c>
+      <c r="H9" t="n">
+        <v>820</v>
+      </c>
+      <c r="I9" t="n">
+        <v>688</v>
+      </c>
+      <c r="J9" t="n">
+        <v>641</v>
+      </c>
+      <c r="K9" t="n">
+        <v>742</v>
+      </c>
+      <c r="L9" t="n">
+        <v>650</v>
+      </c>
+      <c r="M9" t="n">
+        <v>500</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1427</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1462</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1304</v>
+      </c>
+      <c r="R9" t="n">
         <v>1315</v>
       </c>
-      <c r="E9" t="n">
-        <v>1775</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2275</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1640</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1742</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1849</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1673</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1570</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1366</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1125</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2153</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3597</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3287</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2910</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3233</v>
-      </c>
       <c r="S9" t="n">
-        <v>2446</v>
+        <v>1079</v>
       </c>
       <c r="T9" t="n">
-        <v>2659</v>
+        <v>1043</v>
       </c>
       <c r="U9" t="n">
-        <v>3223</v>
+        <v>1289</v>
       </c>
       <c r="V9" t="n">
-        <v>2260</v>
+        <v>939</v>
       </c>
       <c r="W9" t="n">
-        <v>2212</v>
+        <v>1054</v>
       </c>
       <c r="X9" t="n">
-        <v>1467</v>
+        <v>831</v>
       </c>
       <c r="Y9" t="n">
-        <v>1192</v>
+        <v>835</v>
       </c>
       <c r="Z9" t="n">
-        <v>3542</v>
+        <v>1583</v>
       </c>
       <c r="AA9" t="n">
-        <v>5140</v>
+        <v>1611</v>
       </c>
       <c r="AB9" t="n">
-        <v>5015</v>
+        <v>2064</v>
       </c>
       <c r="AC9" t="n">
-        <v>4190</v>
+        <v>1829</v>
       </c>
       <c r="AD9" t="n">
-        <v>5094</v>
+        <v>2151</v>
       </c>
       <c r="AE9" t="n">
-        <v>4120</v>
+        <v>1846</v>
       </c>
       <c r="AF9" t="n">
-        <v>3942</v>
+        <v>1632</v>
       </c>
       <c r="AG9" t="n">
-        <v>4471</v>
+        <v>2004</v>
       </c>
       <c r="AH9" t="n">
-        <v>4523</v>
+        <v>1883</v>
       </c>
       <c r="AI9" t="n">
-        <v>4216</v>
+        <v>1738</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3089</v>
+        <v>1514</v>
       </c>
       <c r="AK9" t="n">
-        <v>3078</v>
+        <v>1466</v>
       </c>
       <c r="AL9" t="n">
-        <v>3358</v>
+        <v>1760</v>
       </c>
       <c r="AM9" t="n">
-        <v>5939</v>
+        <v>2028</v>
       </c>
       <c r="AN9" t="n">
-        <v>6182</v>
+        <v>2344</v>
       </c>
       <c r="AO9" t="n">
-        <v>6165</v>
+        <v>2102</v>
       </c>
       <c r="AP9" t="n">
-        <v>6280</v>
+        <v>2105</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6260</v>
+        <v>2114</v>
       </c>
       <c r="AR9" t="n">
-        <v>5180</v>
+        <v>1766</v>
       </c>
       <c r="AS9" t="n">
-        <v>6247</v>
+        <v>2004</v>
       </c>
       <c r="AT9" t="n">
-        <v>5248</v>
+        <v>1753</v>
       </c>
       <c r="AU9" t="n">
-        <v>3441</v>
+        <v>1426</v>
       </c>
       <c r="AV9" t="n">
-        <v>5136</v>
+        <v>2245</v>
       </c>
       <c r="AW9" t="n">
-        <v>4978</v>
+        <v>2221</v>
       </c>
       <c r="AX9" t="n">
-        <v>3433</v>
+        <v>1747</v>
       </c>
       <c r="AY9" t="n">
-        <v>4399</v>
+        <v>1982</v>
       </c>
       <c r="AZ9" t="n">
-        <v>4101</v>
+        <v>2056</v>
       </c>
       <c r="BA9" t="n">
-        <v>4426</v>
+        <v>2127</v>
       </c>
       <c r="BB9" t="n">
-        <v>3308</v>
+        <v>1620</v>
       </c>
       <c r="BC9" t="n">
-        <v>2632</v>
+        <v>1530</v>
       </c>
       <c r="BD9" t="n">
-        <v>1569</v>
+        <v>1205</v>
       </c>
       <c r="BE9" t="n">
-        <v>1511</v>
+        <v>1087</v>
       </c>
       <c r="BF9" t="n">
-        <v>1367</v>
+        <v>1122</v>
       </c>
       <c r="BG9" t="n">
-        <v>3894</v>
+        <v>2029</v>
       </c>
       <c r="BH9" t="n">
-        <v>5064</v>
+        <v>2186</v>
       </c>
       <c r="BI9" t="n">
-        <v>5017</v>
+        <v>2169</v>
       </c>
       <c r="BJ9" t="n">
-        <v>6396</v>
+        <v>2634</v>
       </c>
       <c r="BK9" t="n">
-        <v>7695</v>
+        <v>2915</v>
       </c>
       <c r="BL9" t="n">
-        <v>7463</v>
+        <v>2740</v>
       </c>
       <c r="BM9" t="n">
-        <v>8212</v>
+        <v>3053</v>
       </c>
       <c r="BN9" t="n">
-        <v>9037</v>
+        <v>3010</v>
       </c>
       <c r="BO9" t="n">
-        <v>7256</v>
+        <v>2759</v>
       </c>
       <c r="BP9" t="n">
-        <v>6297</v>
+        <v>3000</v>
       </c>
       <c r="BQ9" t="n">
-        <v>5907</v>
+        <v>3377</v>
       </c>
       <c r="BR9" t="n">
-        <v>4620</v>
+        <v>1792</v>
       </c>
       <c r="BS9" t="n">
-        <v>5163</v>
+        <v>1985</v>
       </c>
       <c r="BT9" t="n">
-        <v>5066</v>
+        <v>2023</v>
       </c>
       <c r="BU9" t="n">
-        <v>3774</v>
+        <v>1927</v>
       </c>
       <c r="BV9" t="n">
-        <v>11368</v>
+        <v>3412</v>
       </c>
       <c r="BW9" t="n">
-        <v>12593</v>
+        <v>3905</v>
       </c>
       <c r="BX9" t="n">
-        <v>13285</v>
+        <v>4107</v>
       </c>
       <c r="BY9" t="n">
-        <v>14684</v>
+        <v>4214</v>
       </c>
       <c r="BZ9" t="n">
-        <v>15764</v>
+        <v>4663</v>
       </c>
       <c r="CA9" t="n">
-        <v>10414</v>
+        <v>3360</v>
       </c>
       <c r="CB9" t="n">
-        <v>9892</v>
+        <v>3112</v>
       </c>
       <c r="CC9" t="n">
-        <v>11618</v>
+        <v>3510</v>
       </c>
       <c r="CD9" t="n">
-        <v>8985</v>
+        <v>2764</v>
       </c>
       <c r="CE9" t="n">
-        <v>10224</v>
+        <v>3330</v>
       </c>
       <c r="CF9" t="n">
-        <v>8353</v>
+        <v>3061</v>
       </c>
       <c r="CG9" t="n">
-        <v>6311</v>
+        <v>2364</v>
       </c>
       <c r="CH9" t="n">
-        <v>16435</v>
+        <v>4286</v>
       </c>
       <c r="CI9" t="n">
-        <v>21645</v>
+        <v>5363</v>
       </c>
       <c r="CJ9" t="n">
-        <v>22140</v>
+        <v>5419</v>
       </c>
       <c r="CK9" t="n">
-        <v>19903</v>
+        <v>5028</v>
       </c>
       <c r="CL9" t="n">
-        <v>23185</v>
+        <v>5934</v>
       </c>
       <c r="CM9" t="n">
-        <v>20110</v>
+        <v>5144</v>
       </c>
       <c r="CN9" t="n">
-        <v>15820</v>
+        <v>4011</v>
       </c>
       <c r="CO9" t="n">
-        <v>23929</v>
+        <v>5781</v>
       </c>
       <c r="CP9" t="n">
-        <v>16187</v>
+        <v>4367</v>
       </c>
       <c r="CQ9" t="n">
-        <v>17851</v>
+        <v>5053</v>
       </c>
       <c r="CR9" t="n">
-        <v>14526</v>
+        <v>4312</v>
       </c>
       <c r="CS9" t="n">
-        <v>13973</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>21155</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>28503</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>32851</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>33754</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>33033</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>31968</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>26506</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>27753</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>29545</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>22627</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>22151</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>23671</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência</t>
+          <t>F80-F89 - Transtornos do desenvolvimento psicológico</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>558</v>
+        <v>721</v>
       </c>
       <c r="C10" t="n">
-        <v>799</v>
+        <v>1173</v>
       </c>
       <c r="D10" t="n">
-        <v>933</v>
+        <v>1315</v>
       </c>
       <c r="E10" t="n">
-        <v>932</v>
+        <v>1775</v>
       </c>
       <c r="F10" t="n">
-        <v>1183</v>
+        <v>2275</v>
       </c>
       <c r="G10" t="n">
-        <v>950</v>
+        <v>1640</v>
       </c>
       <c r="H10" t="n">
-        <v>943</v>
+        <v>1742</v>
       </c>
       <c r="I10" t="n">
-        <v>999</v>
+        <v>1849</v>
       </c>
       <c r="J10" t="n">
-        <v>877</v>
+        <v>1673</v>
       </c>
       <c r="K10" t="n">
-        <v>1001</v>
+        <v>1570</v>
       </c>
       <c r="L10" t="n">
-        <v>792</v>
+        <v>1366</v>
       </c>
       <c r="M10" t="n">
-        <v>557</v>
+        <v>1125</v>
       </c>
       <c r="N10" t="n">
-        <v>1576</v>
+        <v>2153</v>
       </c>
       <c r="O10" t="n">
-        <v>2696</v>
+        <v>3597</v>
       </c>
       <c r="P10" t="n">
-        <v>2618</v>
+        <v>3287</v>
       </c>
       <c r="Q10" t="n">
-        <v>2102</v>
+        <v>2910</v>
       </c>
       <c r="R10" t="n">
-        <v>2174</v>
+        <v>3233</v>
       </c>
       <c r="S10" t="n">
-        <v>1749</v>
+        <v>2446</v>
       </c>
       <c r="T10" t="n">
-        <v>1689</v>
+        <v>2659</v>
       </c>
       <c r="U10" t="n">
-        <v>1964</v>
+        <v>3223</v>
       </c>
       <c r="V10" t="n">
-        <v>1321</v>
+        <v>2260</v>
       </c>
       <c r="W10" t="n">
-        <v>1373</v>
+        <v>2212</v>
       </c>
       <c r="X10" t="n">
-        <v>988</v>
+        <v>1467</v>
       </c>
       <c r="Y10" t="n">
-        <v>1090</v>
+        <v>1192</v>
       </c>
       <c r="Z10" t="n">
-        <v>1903</v>
+        <v>3542</v>
       </c>
       <c r="AA10" t="n">
-        <v>2787</v>
+        <v>5140</v>
       </c>
       <c r="AB10" t="n">
-        <v>3141</v>
+        <v>5015</v>
       </c>
       <c r="AC10" t="n">
-        <v>2968</v>
+        <v>4190</v>
       </c>
       <c r="AD10" t="n">
-        <v>3508</v>
+        <v>5094</v>
       </c>
       <c r="AE10" t="n">
-        <v>2839</v>
+        <v>4120</v>
       </c>
       <c r="AF10" t="n">
-        <v>2740</v>
+        <v>3942</v>
       </c>
       <c r="AG10" t="n">
-        <v>3002</v>
+        <v>4471</v>
       </c>
       <c r="AH10" t="n">
-        <v>2905</v>
+        <v>4523</v>
       </c>
       <c r="AI10" t="n">
-        <v>2545</v>
+        <v>4216</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2124</v>
+        <v>3089</v>
       </c>
       <c r="AK10" t="n">
-        <v>2425</v>
+        <v>3078</v>
       </c>
       <c r="AL10" t="n">
-        <v>2375</v>
+        <v>3358</v>
       </c>
       <c r="AM10" t="n">
-        <v>3209</v>
+        <v>5939</v>
       </c>
       <c r="AN10" t="n">
-        <v>3791</v>
+        <v>6182</v>
       </c>
       <c r="AO10" t="n">
-        <v>3403</v>
+        <v>6165</v>
       </c>
       <c r="AP10" t="n">
-        <v>3321</v>
+        <v>6280</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3367</v>
+        <v>6260</v>
       </c>
       <c r="AR10" t="n">
-        <v>2418</v>
+        <v>5180</v>
       </c>
       <c r="AS10" t="n">
-        <v>3012</v>
+        <v>6247</v>
       </c>
       <c r="AT10" t="n">
-        <v>2818</v>
+        <v>5248</v>
       </c>
       <c r="AU10" t="n">
-        <v>2021</v>
+        <v>3441</v>
       </c>
       <c r="AV10" t="n">
-        <v>3060</v>
+        <v>5136</v>
       </c>
       <c r="AW10" t="n">
-        <v>2903</v>
+        <v>4978</v>
       </c>
       <c r="AX10" t="n">
-        <v>2659</v>
+        <v>3433</v>
       </c>
       <c r="AY10" t="n">
-        <v>3359</v>
+        <v>4399</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3577</v>
+        <v>4101</v>
       </c>
       <c r="BA10" t="n">
-        <v>3964</v>
+        <v>4426</v>
       </c>
       <c r="BB10" t="n">
-        <v>3120</v>
+        <v>3308</v>
       </c>
       <c r="BC10" t="n">
-        <v>3091</v>
+        <v>2632</v>
       </c>
       <c r="BD10" t="n">
-        <v>2313</v>
+        <v>1569</v>
       </c>
       <c r="BE10" t="n">
-        <v>2011</v>
+        <v>1511</v>
       </c>
       <c r="BF10" t="n">
-        <v>1962</v>
+        <v>1367</v>
       </c>
       <c r="BG10" t="n">
-        <v>3075</v>
+        <v>3894</v>
       </c>
       <c r="BH10" t="n">
-        <v>3013</v>
+        <v>5064</v>
       </c>
       <c r="BI10" t="n">
-        <v>3158</v>
+        <v>5017</v>
       </c>
       <c r="BJ10" t="n">
-        <v>3893</v>
+        <v>6396</v>
       </c>
       <c r="BK10" t="n">
+        <v>7695</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>7463</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>8212</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>9037</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>7256</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>6297</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>5907</v>
+      </c>
+      <c r="BR10" t="n">
         <v>4620</v>
       </c>
-      <c r="BL10" t="n">
-        <v>4724</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>5150</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>5083</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>4519</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>3866</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>3756</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>3487</v>
-      </c>
       <c r="BS10" t="n">
-        <v>3839</v>
+        <v>5163</v>
       </c>
       <c r="BT10" t="n">
-        <v>3397</v>
+        <v>5066</v>
       </c>
       <c r="BU10" t="n">
-        <v>3144</v>
+        <v>3774</v>
       </c>
       <c r="BV10" t="n">
-        <v>5900</v>
+        <v>11368</v>
       </c>
       <c r="BW10" t="n">
-        <v>6920</v>
+        <v>12593</v>
       </c>
       <c r="BX10" t="n">
-        <v>7325</v>
+        <v>13285</v>
       </c>
       <c r="BY10" t="n">
-        <v>7998</v>
+        <v>14684</v>
       </c>
       <c r="BZ10" t="n">
-        <v>8304</v>
+        <v>15764</v>
       </c>
       <c r="CA10" t="n">
-        <v>5814</v>
+        <v>10414</v>
       </c>
       <c r="CB10" t="n">
-        <v>5609</v>
+        <v>9892</v>
       </c>
       <c r="CC10" t="n">
-        <v>6633</v>
+        <v>11618</v>
       </c>
       <c r="CD10" t="n">
-        <v>5237</v>
+        <v>8985</v>
       </c>
       <c r="CE10" t="n">
-        <v>6122</v>
+        <v>10224</v>
       </c>
       <c r="CF10" t="n">
-        <v>4975</v>
+        <v>8353</v>
       </c>
       <c r="CG10" t="n">
-        <v>3726</v>
+        <v>6311</v>
       </c>
       <c r="CH10" t="n">
-        <v>8636</v>
+        <v>16435</v>
       </c>
       <c r="CI10" t="n">
-        <v>11421</v>
+        <v>21645</v>
       </c>
       <c r="CJ10" t="n">
-        <v>11989</v>
+        <v>22140</v>
       </c>
       <c r="CK10" t="n">
-        <v>10801</v>
+        <v>19903</v>
       </c>
       <c r="CL10" t="n">
-        <v>12759</v>
+        <v>23185</v>
       </c>
       <c r="CM10" t="n">
-        <v>10461</v>
+        <v>20110</v>
       </c>
       <c r="CN10" t="n">
-        <v>8682</v>
+        <v>15820</v>
       </c>
       <c r="CO10" t="n">
-        <v>11988</v>
+        <v>23929</v>
       </c>
       <c r="CP10" t="n">
-        <v>8164</v>
+        <v>16187</v>
       </c>
       <c r="CQ10" t="n">
-        <v>9335</v>
+        <v>17851</v>
       </c>
       <c r="CR10" t="n">
-        <v>7388</v>
+        <v>14526</v>
       </c>
       <c r="CS10" t="n">
-        <v>7188</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>12197</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>16526</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>19096</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>18998</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>18201</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>17234</v>
-      </c>
-      <c r="CZ10" t="n">
-        <v>14260</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>15716</v>
-      </c>
-      <c r="DB10" t="n">
-        <v>16339</v>
-      </c>
-      <c r="DC10" t="n">
-        <v>12229</v>
-      </c>
-      <c r="DD10" t="n">
-        <v>11227</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>12157</v>
+        <v>13973</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>F99-F99 - Transtorno mental não especificado</t>
+          <t>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="C11" t="n">
-        <v>599</v>
+        <v>799</v>
       </c>
       <c r="D11" t="n">
-        <v>525</v>
+        <v>933</v>
       </c>
       <c r="E11" t="n">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="F11" t="n">
-        <v>1013</v>
+        <v>1183</v>
       </c>
       <c r="G11" t="n">
-        <v>848</v>
+        <v>950</v>
       </c>
       <c r="H11" t="n">
-        <v>728</v>
+        <v>943</v>
       </c>
       <c r="I11" t="n">
-        <v>847</v>
+        <v>999</v>
       </c>
       <c r="J11" t="n">
-        <v>828</v>
+        <v>877</v>
       </c>
       <c r="K11" t="n">
-        <v>891</v>
+        <v>1001</v>
       </c>
       <c r="L11" t="n">
-        <v>733</v>
+        <v>792</v>
       </c>
       <c r="M11" t="n">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="N11" t="n">
-        <v>1396</v>
+        <v>1576</v>
       </c>
       <c r="O11" t="n">
-        <v>1736</v>
+        <v>2696</v>
       </c>
       <c r="P11" t="n">
-        <v>1482</v>
+        <v>2618</v>
       </c>
       <c r="Q11" t="n">
-        <v>1215</v>
+        <v>2102</v>
       </c>
       <c r="R11" t="n">
-        <v>1189</v>
+        <v>2174</v>
       </c>
       <c r="S11" t="n">
-        <v>1178</v>
+        <v>1749</v>
       </c>
       <c r="T11" t="n">
-        <v>1098</v>
+        <v>1689</v>
       </c>
       <c r="U11" t="n">
-        <v>1259</v>
+        <v>1964</v>
       </c>
       <c r="V11" t="n">
-        <v>837</v>
+        <v>1321</v>
       </c>
       <c r="W11" t="n">
-        <v>1062</v>
+        <v>1373</v>
       </c>
       <c r="X11" t="n">
-        <v>825</v>
+        <v>988</v>
       </c>
       <c r="Y11" t="n">
-        <v>852</v>
+        <v>1090</v>
       </c>
       <c r="Z11" t="n">
-        <v>1721</v>
+        <v>1903</v>
       </c>
       <c r="AA11" t="n">
-        <v>2084</v>
+        <v>2787</v>
       </c>
       <c r="AB11" t="n">
-        <v>2190</v>
+        <v>3141</v>
       </c>
       <c r="AC11" t="n">
-        <v>2133</v>
+        <v>2968</v>
       </c>
       <c r="AD11" t="n">
-        <v>2210</v>
+        <v>3508</v>
       </c>
       <c r="AE11" t="n">
-        <v>2129</v>
+        <v>2839</v>
       </c>
       <c r="AF11" t="n">
-        <v>2167</v>
+        <v>2740</v>
       </c>
       <c r="AG11" t="n">
-        <v>2102</v>
+        <v>3002</v>
       </c>
       <c r="AH11" t="n">
-        <v>1753</v>
+        <v>2905</v>
       </c>
       <c r="AI11" t="n">
-        <v>1227</v>
+        <v>2545</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1458</v>
+        <v>2124</v>
       </c>
       <c r="AK11" t="n">
-        <v>1522</v>
+        <v>2425</v>
       </c>
       <c r="AL11" t="n">
-        <v>2722</v>
+        <v>2375</v>
       </c>
       <c r="AM11" t="n">
-        <v>3303</v>
+        <v>3209</v>
       </c>
       <c r="AN11" t="n">
-        <v>3488</v>
+        <v>3791</v>
       </c>
       <c r="AO11" t="n">
-        <v>2848</v>
+        <v>3403</v>
       </c>
       <c r="AP11" t="n">
-        <v>3102</v>
+        <v>3321</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3482</v>
+        <v>3367</v>
       </c>
       <c r="AR11" t="n">
-        <v>2228</v>
+        <v>2418</v>
       </c>
       <c r="AS11" t="n">
-        <v>2764</v>
+        <v>3012</v>
       </c>
       <c r="AT11" t="n">
-        <v>2369</v>
+        <v>2818</v>
       </c>
       <c r="AU11" t="n">
-        <v>1903</v>
+        <v>2021</v>
       </c>
       <c r="AV11" t="n">
-        <v>2938</v>
+        <v>3060</v>
       </c>
       <c r="AW11" t="n">
-        <v>2788</v>
+        <v>2903</v>
       </c>
       <c r="AX11" t="n">
-        <v>4972</v>
+        <v>2659</v>
       </c>
       <c r="AY11" t="n">
-        <v>5348</v>
+        <v>3359</v>
       </c>
       <c r="AZ11" t="n">
-        <v>5211</v>
+        <v>3577</v>
       </c>
       <c r="BA11" t="n">
-        <v>5591</v>
+        <v>3964</v>
       </c>
       <c r="BB11" t="n">
-        <v>5684</v>
+        <v>3120</v>
       </c>
       <c r="BC11" t="n">
-        <v>5566</v>
+        <v>3091</v>
       </c>
       <c r="BD11" t="n">
-        <v>4264</v>
+        <v>2313</v>
       </c>
       <c r="BE11" t="n">
-        <v>4084</v>
+        <v>2011</v>
       </c>
       <c r="BF11" t="n">
-        <v>4216</v>
+        <v>1962</v>
       </c>
       <c r="BG11" t="n">
-        <v>4127</v>
+        <v>3075</v>
       </c>
       <c r="BH11" t="n">
-        <v>2999</v>
+        <v>3013</v>
       </c>
       <c r="BI11" t="n">
-        <v>3373</v>
+        <v>3158</v>
       </c>
       <c r="BJ11" t="n">
-        <v>5845</v>
+        <v>3893</v>
       </c>
       <c r="BK11" t="n">
-        <v>6156</v>
+        <v>4620</v>
       </c>
       <c r="BL11" t="n">
-        <v>6150</v>
+        <v>4724</v>
       </c>
       <c r="BM11" t="n">
-        <v>6624</v>
+        <v>5150</v>
       </c>
       <c r="BN11" t="n">
-        <v>6237</v>
+        <v>5083</v>
       </c>
       <c r="BO11" t="n">
-        <v>6131</v>
+        <v>4519</v>
       </c>
       <c r="BP11" t="n">
-        <v>5537</v>
+        <v>3866</v>
       </c>
       <c r="BQ11" t="n">
-        <v>5641</v>
+        <v>3756</v>
       </c>
       <c r="BR11" t="n">
-        <v>5130</v>
+        <v>3487</v>
       </c>
       <c r="BS11" t="n">
-        <v>5331</v>
+        <v>3839</v>
       </c>
       <c r="BT11" t="n">
-        <v>4907</v>
+        <v>3397</v>
       </c>
       <c r="BU11" t="n">
-        <v>4901</v>
+        <v>3144</v>
       </c>
       <c r="BV11" t="n">
-        <v>7465</v>
+        <v>5900</v>
       </c>
       <c r="BW11" t="n">
-        <v>7448</v>
+        <v>6920</v>
       </c>
       <c r="BX11" t="n">
-        <v>7364</v>
+        <v>7325</v>
       </c>
       <c r="BY11" t="n">
-        <v>7822</v>
+        <v>7998</v>
       </c>
       <c r="BZ11" t="n">
-        <v>8581</v>
+        <v>8304</v>
       </c>
       <c r="CA11" t="n">
-        <v>7262</v>
+        <v>5814</v>
       </c>
       <c r="CB11" t="n">
-        <v>6786</v>
+        <v>5609</v>
       </c>
       <c r="CC11" t="n">
-        <v>6853</v>
+        <v>6633</v>
       </c>
       <c r="CD11" t="n">
-        <v>6190</v>
+        <v>5237</v>
       </c>
       <c r="CE11" t="n">
-        <v>7258</v>
+        <v>6122</v>
       </c>
       <c r="CF11" t="n">
-        <v>6464</v>
+        <v>4975</v>
       </c>
       <c r="CG11" t="n">
-        <v>6081</v>
+        <v>3726</v>
       </c>
       <c r="CH11" t="n">
-        <v>7266</v>
+        <v>8636</v>
       </c>
       <c r="CI11" t="n">
-        <v>8767</v>
+        <v>11421</v>
       </c>
       <c r="CJ11" t="n">
-        <v>8375</v>
+        <v>11989</v>
       </c>
       <c r="CK11" t="n">
-        <v>7960</v>
+        <v>10801</v>
       </c>
       <c r="CL11" t="n">
-        <v>8944</v>
+        <v>12759</v>
       </c>
       <c r="CM11" t="n">
-        <v>8392</v>
+        <v>10461</v>
       </c>
       <c r="CN11" t="n">
-        <v>6855</v>
+        <v>8682</v>
       </c>
       <c r="CO11" t="n">
-        <v>9844</v>
+        <v>11988</v>
       </c>
       <c r="CP11" t="n">
-        <v>7627</v>
+        <v>8164</v>
       </c>
       <c r="CQ11" t="n">
-        <v>8924</v>
+        <v>9335</v>
       </c>
       <c r="CR11" t="n">
-        <v>7368</v>
+        <v>7388</v>
       </c>
       <c r="CS11" t="n">
-        <v>7878</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>6153</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>7054</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>8523</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>7658</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>7661</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>8776</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>7398</v>
-      </c>
-      <c r="DA11" t="n">
-        <v>7976</v>
-      </c>
-      <c r="DB11" t="n">
-        <v>8419</v>
-      </c>
-      <c r="DC11" t="n">
-        <v>6979</v>
-      </c>
-      <c r="DD11" t="n">
-        <v>7619</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>8529</v>
+        <v>7188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>F99-F99 - Transtorno mental não especificado</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>504</v>
+      </c>
+      <c r="C12" t="n">
+        <v>599</v>
+      </c>
+      <c r="D12" t="n">
+        <v>525</v>
+      </c>
+      <c r="E12" t="n">
+        <v>903</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1013</v>
+      </c>
+      <c r="G12" t="n">
+        <v>848</v>
+      </c>
+      <c r="H12" t="n">
+        <v>728</v>
+      </c>
+      <c r="I12" t="n">
+        <v>847</v>
+      </c>
+      <c r="J12" t="n">
+        <v>828</v>
+      </c>
+      <c r="K12" t="n">
+        <v>891</v>
+      </c>
+      <c r="L12" t="n">
+        <v>733</v>
+      </c>
+      <c r="M12" t="n">
+        <v>513</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1396</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1736</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1482</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1215</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1189</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1178</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1098</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1259</v>
+      </c>
+      <c r="V12" t="n">
+        <v>837</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1062</v>
+      </c>
+      <c r="X12" t="n">
+        <v>825</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>852</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1721</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2084</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2133</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2210</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2129</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>2167</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2102</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1753</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1227</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1458</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1522</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2722</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>3303</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3488</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>2848</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3102</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>3482</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>2228</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>2764</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2369</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1903</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>2938</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2788</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4972</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>5348</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>5211</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>5591</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>5684</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>5566</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>4264</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>4084</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>4216</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>4127</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>2999</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>3373</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>5845</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>6156</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>6150</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>6624</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>6237</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>6131</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>5537</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>5641</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>5130</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>5331</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>4907</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>4901</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>7465</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>7448</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>7364</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>7822</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>8581</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>7262</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>6786</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>6853</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>6190</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>7258</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>6464</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>6081</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>7266</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>8767</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>8375</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>7960</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>8944</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>8392</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>6855</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>9844</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>7627</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>8924</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>7368</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>7878</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>13359</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17271</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19908</v>
-      </c>
-      <c r="E12" t="n">
-        <v>23095</v>
-      </c>
-      <c r="F12" t="n">
-        <v>26138</v>
-      </c>
-      <c r="G12" t="n">
-        <v>22132</v>
-      </c>
-      <c r="H12" t="n">
-        <v>22965</v>
-      </c>
-      <c r="I12" t="n">
-        <v>22084</v>
-      </c>
-      <c r="J12" t="n">
-        <v>20243</v>
-      </c>
-      <c r="K12" t="n">
-        <v>20724</v>
-      </c>
-      <c r="L12" t="n">
-        <v>17905</v>
-      </c>
-      <c r="M12" t="n">
-        <v>15644</v>
-      </c>
-      <c r="N12" t="n">
-        <v>34205</v>
-      </c>
-      <c r="O12" t="n">
-        <v>45580</v>
-      </c>
-      <c r="P12" t="n">
-        <v>43413</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>39539</v>
-      </c>
-      <c r="R12" t="n">
-        <v>39907</v>
-      </c>
-      <c r="S12" t="n">
-        <v>31920</v>
-      </c>
-      <c r="T12" t="n">
-        <v>32690</v>
-      </c>
-      <c r="U12" t="n">
-        <v>35107</v>
-      </c>
-      <c r="V12" t="n">
-        <v>26570</v>
-      </c>
-      <c r="W12" t="n">
-        <v>29946</v>
-      </c>
-      <c r="X12" t="n">
-        <v>23285</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>24618</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>45215</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>53483</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>62723</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>56129</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>64210</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>56226</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>50842</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>54298</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>52174</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>48384</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>42465</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>45492</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>53708</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>67187</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>75236</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>68621</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>70344</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>67441</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>50560</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>61157</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>54755</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>42734</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>65310</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>63753</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>78001</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>91269</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>87307</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>98595</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>87500</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>86929</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>71654</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>64097</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>61318</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>71440</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>66744</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>73003</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>104336</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>117566</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>113613</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>122825</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>126574</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>113927</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>99384</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>97038</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>90111</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>96093</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>84788</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>83505</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>146308</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>160425</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>164470</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>173529</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>184554</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>137585</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>126022</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>144605</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>118704</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>142135</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>123645</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>99280</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>171896</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>214741</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>219452</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>202595</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>233414</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>205880</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>170690</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>237858</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>174083</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>200825</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>166710</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>172064</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>181171</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>227451</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>265039</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>261634</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>256304</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>258344</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>217918</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>234406</v>
-      </c>
-      <c r="DB12" t="n">
-        <v>252326</v>
-      </c>
-      <c r="DC12" t="n">
-        <v>201410</v>
-      </c>
-      <c r="DD12" t="n">
-        <v>202364</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>226318</v>
+      <c r="B13" t="n">
+        <v>13652</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17713</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20488</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23681</v>
+      </c>
+      <c r="F13" t="n">
+        <v>26908</v>
+      </c>
+      <c r="G13" t="n">
+        <v>22654</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23643</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22672</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20780</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21308</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18402</v>
+      </c>
+      <c r="M13" t="n">
+        <v>16157</v>
+      </c>
+      <c r="N13" t="n">
+        <v>34884</v>
+      </c>
+      <c r="O13" t="n">
+        <v>46437</v>
+      </c>
+      <c r="P13" t="n">
+        <v>44173</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>40402</v>
+      </c>
+      <c r="R13" t="n">
+        <v>40763</v>
+      </c>
+      <c r="S13" t="n">
+        <v>32611</v>
+      </c>
+      <c r="T13" t="n">
+        <v>33360</v>
+      </c>
+      <c r="U13" t="n">
+        <v>35764</v>
+      </c>
+      <c r="V13" t="n">
+        <v>27174</v>
+      </c>
+      <c r="W13" t="n">
+        <v>30677</v>
+      </c>
+      <c r="X13" t="n">
+        <v>23954</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>25310</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>45897</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>54302</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>63697</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>57169</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>65348</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>57142</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51694</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>55373</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>53163</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>49317</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>43229</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>46269</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>54540</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>68277</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>76486</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>69779</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>71560</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>68635</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51353</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>62054</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>55622</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>43398</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>66385</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>64782</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>79114</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>92742</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>88798</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>100095</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>88783</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>88299</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>72805</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>65036</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>62130</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>72568</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>67822</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>74215</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>105745</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>119254</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>115220</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>124544</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>128150</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>115383</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>100666</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>98274</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>91236</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>97452</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>86139</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>84794</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>148353</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>162590</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>166754</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>175869</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>186944</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>139269</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>127662</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>146445</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>120157</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>143800</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>125166</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>100648</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>174182</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>217553</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>222301</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>205261</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>236672</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>209003</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>173150</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>241412</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>176662</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>203622</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>169067</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>174538</v>
       </c>
     </row>
   </sheetData>
